--- a/2022/Realme/January/01.01.2022/realme Bank Statement January-2022.xlsx
+++ b/2022/Realme/January/01.01.2022/realme Bank Statement January-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Jan-2022" sheetId="7" r:id="rId1"/>
@@ -184,9 +184,6 @@
     <t>Capital</t>
   </si>
   <si>
-    <t>BP Conference</t>
-  </si>
-  <si>
     <t>Company Security = 200000</t>
   </si>
   <si>
@@ -305,6 +302,9 @@
   </si>
   <si>
     <t>Hand</t>
+  </si>
+  <si>
+    <t>DSR Campaign Dec.2021</t>
   </si>
 </sst>
 </file>
@@ -2399,12 +2399,45 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="35" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2415,39 +2448,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="38" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="38" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="35" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3111,7 +3111,7 @@
     <row r="2" spans="1:11" ht="16.5" customHeight="1">
       <c r="A2" s="15"/>
       <c r="B2" s="246" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="246"/>
       <c r="D2" s="246"/>
@@ -3145,7 +3145,7 @@
     <row r="5" spans="1:11">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="19">
         <v>6130</v>
@@ -3179,7 +3179,7 @@
     <row r="7" spans="1:11">
       <c r="A7" s="15"/>
       <c r="B7" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="19">
         <v>0</v>
@@ -3845,9 +3845,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3859,67 +3859,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="253" t="s">
+      <c r="A1" s="247" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="253"/>
-      <c r="C1" s="253"/>
-      <c r="D1" s="253"/>
-      <c r="E1" s="253"/>
-      <c r="F1" s="253"/>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="253"/>
-      <c r="M1" s="253"/>
-      <c r="N1" s="253"/>
-      <c r="O1" s="253"/>
-      <c r="P1" s="253"/>
-      <c r="Q1" s="253"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
+      <c r="F1" s="247"/>
+      <c r="G1" s="247"/>
+      <c r="H1" s="247"/>
+      <c r="I1" s="247"/>
+      <c r="J1" s="247"/>
+      <c r="K1" s="247"/>
+      <c r="L1" s="247"/>
+      <c r="M1" s="247"/>
+      <c r="N1" s="247"/>
+      <c r="O1" s="247"/>
+      <c r="P1" s="247"/>
+      <c r="Q1" s="247"/>
     </row>
     <row r="2" spans="1:24" s="103" customFormat="1" ht="18">
-      <c r="A2" s="254" t="s">
+      <c r="A2" s="248" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="254"/>
-      <c r="C2" s="254"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="254"/>
-      <c r="L2" s="254"/>
-      <c r="M2" s="254"/>
-      <c r="N2" s="254"/>
-      <c r="O2" s="254"/>
-      <c r="P2" s="254"/>
-      <c r="Q2" s="254"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="248"/>
+      <c r="E2" s="248"/>
+      <c r="F2" s="248"/>
+      <c r="G2" s="248"/>
+      <c r="H2" s="248"/>
+      <c r="I2" s="248"/>
+      <c r="J2" s="248"/>
+      <c r="K2" s="248"/>
+      <c r="L2" s="248"/>
+      <c r="M2" s="248"/>
+      <c r="N2" s="248"/>
+      <c r="O2" s="248"/>
+      <c r="P2" s="248"/>
+      <c r="Q2" s="248"/>
     </row>
     <row r="3" spans="1:24" s="104" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="255" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="256"/>
-      <c r="M3" s="256"/>
-      <c r="N3" s="256"/>
-      <c r="O3" s="256"/>
-      <c r="P3" s="256"/>
-      <c r="Q3" s="257"/>
+      <c r="A3" s="249" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="250"/>
+      <c r="C3" s="250"/>
+      <c r="D3" s="250"/>
+      <c r="E3" s="250"/>
+      <c r="F3" s="250"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="250"/>
+      <c r="I3" s="250"/>
+      <c r="J3" s="250"/>
+      <c r="K3" s="250"/>
+      <c r="L3" s="250"/>
+      <c r="M3" s="250"/>
+      <c r="N3" s="250"/>
+      <c r="O3" s="250"/>
+      <c r="P3" s="250"/>
+      <c r="Q3" s="251"/>
       <c r="S3" s="48"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -3928,52 +3928,52 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="106" customFormat="1">
-      <c r="A4" s="258" t="s">
+      <c r="A4" s="252" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="260" t="s">
+      <c r="B4" s="254" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="247" t="s">
+      <c r="C4" s="256" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="247" t="s">
+      <c r="D4" s="256" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="247" t="s">
+      <c r="E4" s="256" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="247" t="s">
+      <c r="F4" s="256" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="247" t="s">
+      <c r="G4" s="256" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="247" t="s">
+      <c r="H4" s="256" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="247" t="s">
+      <c r="I4" s="256" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="247" t="s">
+      <c r="J4" s="256" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="247" t="s">
+      <c r="K4" s="256" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="247" t="s">
+      <c r="L4" s="256" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="247" t="s">
-        <v>61</v>
-      </c>
-      <c r="N4" s="251" t="s">
-        <v>50</v>
-      </c>
-      <c r="O4" s="249" t="s">
+      <c r="M4" s="256" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="262" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" s="260" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="262" t="s">
+      <c r="P4" s="258" t="s">
         <v>36</v>
       </c>
       <c r="Q4" s="105" t="s">
@@ -3986,22 +3986,22 @@
       <c r="W4" s="108"/>
     </row>
     <row r="5" spans="1:24" s="106" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="259"/>
-      <c r="B5" s="261"/>
-      <c r="C5" s="248"/>
-      <c r="D5" s="248"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
-      <c r="I5" s="248"/>
-      <c r="J5" s="248"/>
-      <c r="K5" s="248"/>
-      <c r="L5" s="248"/>
-      <c r="M5" s="248"/>
-      <c r="N5" s="252"/>
-      <c r="O5" s="250"/>
-      <c r="P5" s="263"/>
+      <c r="A5" s="253"/>
+      <c r="B5" s="255"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
+      <c r="J5" s="257"/>
+      <c r="K5" s="257"/>
+      <c r="L5" s="257"/>
+      <c r="M5" s="257"/>
+      <c r="N5" s="263"/>
+      <c r="O5" s="261"/>
+      <c r="P5" s="259"/>
       <c r="Q5" s="110" t="s">
         <v>37</v>
       </c>
@@ -4014,7 +4014,7 @@
     </row>
     <row r="6" spans="1:24" s="9" customFormat="1">
       <c r="A6" s="114" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="115">
         <v>500</v>
@@ -4036,12 +4036,14 @@
       <c r="K6" s="116"/>
       <c r="L6" s="116"/>
       <c r="M6" s="152"/>
-      <c r="N6" s="116"/>
+      <c r="N6" s="116">
+        <v>1000</v>
+      </c>
       <c r="O6" s="116"/>
       <c r="P6" s="118"/>
       <c r="Q6" s="119">
         <f t="shared" ref="Q6:Q36" si="0">SUM(B6:P6)</f>
-        <v>950</v>
+        <v>1950</v>
       </c>
       <c r="R6" s="120"/>
       <c r="S6" s="121"/>
@@ -4885,7 +4887,7 @@
       </c>
       <c r="N37" s="141">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="O37" s="141">
         <f t="shared" si="1"/>
@@ -4897,7 +4899,7 @@
       </c>
       <c r="Q37" s="143">
         <f>SUM(Q6:Q36)</f>
-        <v>950</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -6899,6 +6901,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -6915,9 +6920,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7016,7 +7018,7 @@
     </row>
     <row r="2" spans="1:61" ht="15" customHeight="1">
       <c r="A2" s="274" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="274"/>
       <c r="C2" s="274"/>
@@ -9707,7 +9709,7 @@
     </row>
     <row r="42" spans="1:61">
       <c r="A42" s="226" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B42" s="226" t="s">
         <v>47</v>
@@ -9716,7 +9718,7 @@
         <v>299440</v>
       </c>
       <c r="D42" s="226" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F42" s="194"/>
       <c r="G42" s="68"/>
@@ -9777,7 +9779,7 @@
     </row>
     <row r="43" spans="1:61">
       <c r="A43" s="226" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B43" s="226" t="s">
         <v>47</v>
@@ -9786,7 +9788,7 @@
         <v>4460</v>
       </c>
       <c r="D43" s="226" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E43" s="48"/>
       <c r="F43" s="284" t="s">
@@ -9850,16 +9852,16 @@
     </row>
     <row r="44" spans="1:61">
       <c r="A44" s="226" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" s="226" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" s="230">
         <v>69330</v>
       </c>
       <c r="D44" s="226" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E44" s="47"/>
       <c r="F44" s="195"/>
@@ -9920,16 +9922,16 @@
     </row>
     <row r="45" spans="1:61">
       <c r="A45" s="226" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="226" t="s">
         <v>63</v>
-      </c>
-      <c r="B45" s="226" t="s">
-        <v>64</v>
       </c>
       <c r="C45" s="230">
         <v>14270</v>
       </c>
       <c r="D45" s="226" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E45" s="47"/>
       <c r="F45" s="71"/>
@@ -9990,16 +9992,16 @@
     </row>
     <row r="46" spans="1:61">
       <c r="A46" s="226" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B46" s="226" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C46" s="230">
         <v>37340</v>
       </c>
       <c r="D46" s="226" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E46" s="47"/>
       <c r="F46" s="162"/>
@@ -10060,16 +10062,16 @@
     </row>
     <row r="47" spans="1:61">
       <c r="A47" s="226" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="226" t="s">
         <v>67</v>
-      </c>
-      <c r="B47" s="226" t="s">
-        <v>68</v>
       </c>
       <c r="C47" s="230">
         <v>6000</v>
       </c>
       <c r="D47" s="231" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E47" s="47"/>
       <c r="F47" s="162"/>
@@ -10139,7 +10141,7 @@
         <v>147630</v>
       </c>
       <c r="D48" s="231" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E48" s="47"/>
       <c r="F48" s="159"/>
@@ -10200,16 +10202,16 @@
     </row>
     <row r="49" spans="1:61">
       <c r="A49" s="231" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B49" s="226" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C49" s="230">
         <v>8000</v>
       </c>
       <c r="D49" s="226" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E49" s="47"/>
       <c r="F49" s="159"/>
@@ -10270,16 +10272,16 @@
     </row>
     <row r="50" spans="1:61">
       <c r="A50" s="226" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="226" t="s">
         <v>70</v>
-      </c>
-      <c r="B50" s="226" t="s">
-        <v>71</v>
       </c>
       <c r="C50" s="230">
         <v>1800</v>
       </c>
       <c r="D50" s="231" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E50" s="47"/>
       <c r="F50" s="159"/>
@@ -10340,16 +10342,16 @@
     </row>
     <row r="51" spans="1:61" ht="13.5" thickBot="1">
       <c r="A51" s="226" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B51" s="226" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" s="230">
         <v>1000</v>
       </c>
       <c r="D51" s="226" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E51" s="47"/>
       <c r="F51" s="40"/>
@@ -15672,8 +15674,8 @@
   </sheetPr>
   <dimension ref="A1:AC225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -15716,7 +15718,7 @@
     </row>
     <row r="3" spans="1:29" ht="24" thickBot="1">
       <c r="A3" s="290" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="291"/>
       <c r="C3" s="291"/>
@@ -15749,7 +15751,7 @@
     </row>
     <row r="4" spans="1:29" ht="24" thickBot="1">
       <c r="A4" s="299" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="300"/>
       <c r="C4" s="300"/>
@@ -15827,7 +15829,7 @@
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="174" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="180">
         <v>6130</v>
@@ -15859,7 +15861,7 @@
       <c r="B7" s="179"/>
       <c r="C7" s="32"/>
       <c r="D7" s="174" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="219">
         <v>168777.5</v>
@@ -15921,7 +15923,7 @@
     </row>
     <row r="9" spans="1:29" ht="21.75">
       <c r="A9" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="179">
         <v>950</v>
@@ -16103,7 +16105,7 @@
     </row>
     <row r="14" spans="1:29" ht="21.75">
       <c r="A14" s="185" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="221">
         <v>5100000</v>
@@ -16279,14 +16281,14 @@
     </row>
     <row r="19" spans="1:29" ht="21.75">
       <c r="A19" s="227" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="237">
         <v>147630</v>
       </c>
       <c r="C19" s="228"/>
       <c r="D19" s="228" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" s="239">
         <v>21270</v>
@@ -16317,14 +16319,14 @@
     </row>
     <row r="20" spans="1:29" ht="21.75">
       <c r="A20" s="244" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="238">
         <v>299440</v>
       </c>
       <c r="C20" s="236"/>
       <c r="D20" s="236" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E20" s="240">
         <v>69330</v>
@@ -16356,14 +16358,14 @@
     </row>
     <row r="21" spans="1:29" ht="22.5" thickBot="1">
       <c r="A21" s="229" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="241">
         <v>37340</v>
       </c>
       <c r="C21" s="242"/>
       <c r="D21" s="242" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E21" s="243">
         <v>8000</v>
